--- a/biology/Zoologie/Hapalémur_gris/Hapalémur_gris.xlsx
+++ b/biology/Zoologie/Hapalémur_gris/Hapalémur_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur_gris</t>
+          <t>Hapalémur_gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hapalemur griseus
 L'Hapalémur gris (Hapalemur griseus) est un lémurien endémique de Madagascar.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur_gris</t>
+          <t>Hapalémur_gris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'hapalémur gris mesure environ 66 cm de long pour un poids de 0,9 kg. Le mâle est légèrement plus grand que la femelle[1].
-Sous-espèces
-Selon ITIS      (5 septembre 2017)[2] :
-Hapalemur griseus gilberti Rabarivola, Prosper, Zaramody, Andriaholinirina &amp; Hauwy, 2007  En danger
-Hapalemur griseus griseus (Link, 1795)  Vulnérable
-Hapalemur griseus ranomafanensis Rabarivola, Prosper, Zaramody, Andriaholinirina &amp; Hauwy, 2007  Données insuffisantes</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hapalémur gris mesure environ 66 cm de long pour un poids de 0,9 kg. Le mâle est légèrement plus grand que la femelle.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur_gris</t>
+          <t>Hapalémur_gris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce vit en groupe d'environ 4 individus mais parfois jusqu'à 40 peuvent être observés ensemble.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (5 septembre 2017) :
+Hapalemur griseus gilberti Rabarivola, Prosper, Zaramody, Andriaholinirina &amp; Hauwy, 2007  En danger
+Hapalemur griseus griseus (Link, 1795)  Vulnérable
+Hapalemur griseus ranomafanensis Rabarivola, Prosper, Zaramody, Andriaholinirina &amp; Hauwy, 2007  Données insuffisantes</t>
         </is>
       </c>
     </row>
@@ -560,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur_gris</t>
+          <t>Hapalémur_gris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +593,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en groupe d'environ 4 individus mais parfois jusqu'à 40 peuvent être observés ensemble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hapalémur_gris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hapal%C3%A9mur_gris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit principalement de bambous (72 %), puis d'herbes (16 %), de fruits (5 %) et de feuilles (4 %). Les femelles mangent généralement plus que les mâles lorsqu'elles sont en gestation ou qu'elles allaitent[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement de bambous (72 %), puis d'herbes (16 %), de fruits (5 %) et de feuilles (4 %). Les femelles mangent généralement plus que les mâles lorsqu'elles sont en gestation ou qu'elles allaitent.
 </t>
         </is>
       </c>
